--- a/GHMonitoringCenterApi.Domain.Shared/Template/Excel/ProductionDayReport.xlsx
+++ b/GHMonitoringCenterApi.Domain.Shared/Template/Excel/ProductionDayReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12975"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="1号" sheetId="1" r:id="rId1"/>
@@ -57,14 +57,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="90">
   <si>
     <t>{{datesheet1}}广航局生产运营监控日报</t>
   </si>
   <si>
-    <t>{{days1heet1}}</t>
-  </si>
-  <si>
     <t>业务单位</t>
   </si>
   <si>
@@ -180,6 +177,108 @@
   </si>
   <si>
     <t>{{result3.BuildPercent}}</t>
+  </si>
+  <si>
+    <t>当年运转时间</t>
+  </si>
+  <si>
+    <t>当年时间利用率</t>
+  </si>
+  <si>
+    <t>{{result4.Name}}</t>
+  </si>
+  <si>
+    <t>{{result4.DayProductionValue}}</t>
+  </si>
+  <si>
+    <t>{{result4.YearTotalProductionValue}}</t>
+  </si>
+  <si>
+    <t>{{result4.YearTotalTurnHours}}</t>
+  </si>
+  <si>
+    <t>{{result4.TimePercent}}</t>
+  </si>
+  <si>
+    <t>船名</t>
+  </si>
+  <si>
+    <t>年累计产值（亿元）</t>
+  </si>
+  <si>
+    <t>时间利用率</t>
+  </si>
+  <si>
+    <t>{{result5.ShipName}}</t>
+  </si>
+  <si>
+    <t>{{result5.ShipDayOutput}}</t>
+  </si>
+  <si>
+    <t>{{result5.ShipYearOutput}}</t>
+  </si>
+  <si>
+    <t>{{result5.TimePercent}}</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>事项来源</t>
+  </si>
+  <si>
+    <t>事项分类</t>
+  </si>
+  <si>
+    <t>情况描述</t>
+  </si>
+  <si>
+    <t>{{result6.Name}}</t>
+  </si>
+  <si>
+    <t>{{result6.SourceMatter}}</t>
+  </si>
+  <si>
+    <t>{{result6.Type}}</t>
+  </si>
+  <si>
+    <t>{{result6.Description}}</t>
+  </si>
+  <si>
+    <t>在建项目</t>
+  </si>
+  <si>
+    <t>当日未填报项目</t>
+  </si>
+  <si>
+    <t>当日填报率</t>
+  </si>
+  <si>
+    <t>{{result7.Name}}</t>
+  </si>
+  <si>
+    <t>{{result7.OnBulidCount}}</t>
+  </si>
+  <si>
+    <t>{{result7.UnReportCount}}</t>
+  </si>
+  <si>
+    <t>{{result7.WritePercent}}</t>
+  </si>
+  <si>
+    <t>未填报项目</t>
+  </si>
+  <si>
+    <t>当月未填报次数</t>
+  </si>
+  <si>
+    <t>{{result8.Name}}</t>
+  </si>
+  <si>
+    <t>{{result8.ProjectName}}</t>
+  </si>
+  <si>
+    <t>{{result8.unCount}}</t>
   </si>
   <si>
     <t>广航局生产运营监控日报{{date}}</t>
@@ -1429,27 +1528,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:J2"/>
+    <sheetView tabSelected="1" topLeftCell="C72" workbookViewId="0">
+      <selection activeCell="G84" sqref="G84:I85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.75" customWidth="1"/>
-    <col min="2" max="2" width="21.375" customWidth="1"/>
-    <col min="3" max="3" width="34.375" customWidth="1"/>
-    <col min="4" max="4" width="27.5" customWidth="1"/>
-    <col min="5" max="5" width="34.625" customWidth="1"/>
-    <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="30.625" customWidth="1"/>
-    <col min="8" max="8" width="26.75" customWidth="1"/>
-    <col min="9" max="9" width="24.25" customWidth="1"/>
-    <col min="10" max="10" width="25.75" customWidth="1"/>
+    <col min="1" max="1" width="21.375" customWidth="1"/>
+    <col min="2" max="2" width="34.375" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="4" width="34.625" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="30.625" customWidth="1"/>
+    <col min="7" max="7" width="26.75" customWidth="1"/>
+    <col min="8" max="8" width="24.25" customWidth="1"/>
+    <col min="9" max="9" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1461,9 +1559,8 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1473,10 +1570,9 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" ht="24" customHeight="1" spans="1:10">
-      <c r="A3" s="4" t="s">
+    </row>
+    <row r="3" ht="24" customHeight="1" spans="1:9">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1503,12 +1599,11 @@
       <c r="I3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="3" t="s">
+    </row>
+    <row r="4" ht="27" customHeight="1" spans="1:9">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" ht="27" customHeight="1" spans="1:10">
-      <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -1533,32 +1628,53 @@
       <c r="I4" t="s">
         <v>18</v>
       </c>
-      <c r="J4" t="s">
+    </row>
+    <row r="5" ht="28" customHeight="1"/>
+    <row r="6" ht="26" customHeight="1"/>
+    <row r="7" ht="25" customHeight="1"/>
+    <row r="8" ht="26" customHeight="1"/>
+    <row r="9" ht="27" customHeight="1"/>
+    <row r="10" ht="24" customHeight="1"/>
+    <row r="11" ht="27" customHeight="1"/>
+    <row r="12" ht="30" customHeight="1" spans="1:9">
+      <c r="A12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" ht="28" customHeight="1" spans="1:1">
-      <c r="A5" s="4"/>
-    </row>
-    <row r="6" ht="26" customHeight="1" spans="1:1">
-      <c r="A6" s="4"/>
-    </row>
-    <row r="7" ht="25" customHeight="1" spans="1:1">
-      <c r="A7" s="4"/>
-    </row>
-    <row r="8" ht="26" customHeight="1" spans="1:1">
-      <c r="A8" s="4"/>
-    </row>
-    <row r="9" ht="27" customHeight="1" spans="1:1">
-      <c r="A9" s="4"/>
-    </row>
-    <row r="10" ht="24" customHeight="1" spans="1:1">
-      <c r="A10" s="4"/>
-    </row>
-    <row r="11" ht="27" customHeight="1" spans="1:1">
-      <c r="A11" s="4"/>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" ht="34" customHeight="1" spans="1:9">
+      <c r="A13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" ht="28" customHeight="1" spans="1:9">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1568,9 +1684,8 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:10">
+    </row>
+    <row r="15" ht="27" customHeight="1" spans="1:9">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1580,51 +1695,30 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" ht="30" customHeight="1" spans="1:10">
-      <c r="A16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" ht="34" customHeight="1" spans="1:10">
+    </row>
+    <row r="16" ht="30" customHeight="1" spans="1:9">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" ht="26" customHeight="1" spans="1:9">
       <c r="A17" s="4"/>
-      <c r="B17" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" ht="28" customHeight="1" spans="1:10">
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" ht="28" customHeight="1" spans="1:9">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1634,9 +1728,8 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" ht="27" customHeight="1" spans="1:10">
+    </row>
+    <row r="19" ht="27" customHeight="1" spans="1:9">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1646,9 +1739,8 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" ht="30" customHeight="1" spans="1:10">
+    </row>
+    <row r="20" ht="30" customHeight="1" spans="1:9">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1658,210 +1750,927 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" ht="26" customHeight="1" spans="1:10">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" ht="28" customHeight="1" spans="1:10">
-      <c r="A22" s="4"/>
+    </row>
+    <row r="21" ht="33" customHeight="1" spans="1:9">
+      <c r="A21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" ht="28" customHeight="1" spans="1:9">
+      <c r="A22" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
+      <c r="C22" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-    </row>
-    <row r="23" ht="27" customHeight="1" spans="1:10">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+    </row>
+    <row r="23" ht="30" customHeight="1" spans="1:9">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-    </row>
-    <row r="24" ht="30" customHeight="1" spans="1:10">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+    </row>
+    <row r="24" ht="28" customHeight="1" spans="1:9">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-    </row>
-    <row r="25" ht="33" customHeight="1" spans="2:10">
-      <c r="B25" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J25" s="5"/>
-    </row>
-    <row r="26" ht="28" customHeight="1" spans="1:10">
-      <c r="A26" s="4" t="s">
+    </row>
+    <row r="25" ht="30" customHeight="1" spans="1:9">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J26" s="4"/>
-    </row>
-    <row r="27" ht="30" customHeight="1" spans="1:10">
-      <c r="A27" s="4"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-    </row>
-    <row r="28" ht="28" customHeight="1" spans="1:10">
-      <c r="A28" s="4"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-    </row>
-    <row r="29" ht="30" customHeight="1" spans="1:10">
-      <c r="A29" s="4"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="7"/>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="7"/>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="7"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="7"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="7"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="A14:J15"/>
+  <mergeCells count="157">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:F32"/>
+    <mergeCell ref="G31:H32"/>
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="E27:F28"/>
+    <mergeCell ref="G27:H28"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="E29:F30"/>
+    <mergeCell ref="G29:H30"/>
+    <mergeCell ref="A33:B34"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="E33:F34"/>
+    <mergeCell ref="G33:H34"/>
+    <mergeCell ref="A35:B36"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="E35:F36"/>
+    <mergeCell ref="G35:H36"/>
+    <mergeCell ref="A39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:F40"/>
+    <mergeCell ref="G39:I40"/>
+    <mergeCell ref="A41:B42"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="E41:F42"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="C43:D44"/>
+    <mergeCell ref="E43:F44"/>
+    <mergeCell ref="A45:B46"/>
+    <mergeCell ref="C45:D46"/>
+    <mergeCell ref="E45:F46"/>
+    <mergeCell ref="A47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:F48"/>
+    <mergeCell ref="A49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="E49:F50"/>
+    <mergeCell ref="G41:I42"/>
+    <mergeCell ref="G43:I44"/>
+    <mergeCell ref="G45:I46"/>
+    <mergeCell ref="G47:I48"/>
+    <mergeCell ref="G49:I50"/>
+    <mergeCell ref="A51:B52"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="E51:F52"/>
+    <mergeCell ref="G51:I52"/>
+    <mergeCell ref="B55:C56"/>
+    <mergeCell ref="D55:E56"/>
+    <mergeCell ref="F55:I56"/>
+    <mergeCell ref="B57:C58"/>
+    <mergeCell ref="D57:E58"/>
+    <mergeCell ref="B59:C60"/>
+    <mergeCell ref="D59:E60"/>
+    <mergeCell ref="B61:C62"/>
+    <mergeCell ref="D61:E62"/>
+    <mergeCell ref="F57:I58"/>
+    <mergeCell ref="F59:I60"/>
+    <mergeCell ref="F61:I62"/>
+    <mergeCell ref="A64:B65"/>
+    <mergeCell ref="C64:D65"/>
+    <mergeCell ref="E64:F65"/>
+    <mergeCell ref="G64:I65"/>
+    <mergeCell ref="A66:B67"/>
+    <mergeCell ref="C66:D67"/>
+    <mergeCell ref="E66:F67"/>
+    <mergeCell ref="A68:B69"/>
+    <mergeCell ref="C68:D69"/>
+    <mergeCell ref="E68:F69"/>
+    <mergeCell ref="A70:B71"/>
+    <mergeCell ref="C70:D71"/>
+    <mergeCell ref="E70:F71"/>
+    <mergeCell ref="A72:B73"/>
+    <mergeCell ref="C72:D73"/>
+    <mergeCell ref="E72:F73"/>
+    <mergeCell ref="A74:B75"/>
+    <mergeCell ref="C74:D75"/>
+    <mergeCell ref="E74:F75"/>
+    <mergeCell ref="A76:B77"/>
+    <mergeCell ref="C76:D77"/>
+    <mergeCell ref="E76:F77"/>
+    <mergeCell ref="A78:B79"/>
+    <mergeCell ref="C78:D79"/>
+    <mergeCell ref="E78:F79"/>
+    <mergeCell ref="A80:B81"/>
+    <mergeCell ref="C80:D81"/>
+    <mergeCell ref="E80:F81"/>
+    <mergeCell ref="G66:I67"/>
+    <mergeCell ref="G68:I69"/>
+    <mergeCell ref="G70:I71"/>
+    <mergeCell ref="G72:I73"/>
+    <mergeCell ref="G74:I75"/>
+    <mergeCell ref="G76:I77"/>
+    <mergeCell ref="G78:I79"/>
+    <mergeCell ref="G80:I81"/>
+    <mergeCell ref="A82:B83"/>
+    <mergeCell ref="C82:D83"/>
+    <mergeCell ref="E82:F83"/>
+    <mergeCell ref="G82:I83"/>
+    <mergeCell ref="A84:B85"/>
+    <mergeCell ref="C84:D85"/>
+    <mergeCell ref="E84:F85"/>
+    <mergeCell ref="G84:I85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -2053,7 +2862,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2079,64 +2888,64 @@
     </row>
     <row r="3" ht="24" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" ht="27" customHeight="1" spans="1:10">
       <c r="A4" s="4"/>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>16</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>17</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>18</v>
-      </c>
-      <c r="J4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="28" customHeight="1" spans="1:1">
@@ -2186,43 +2995,43 @@
     </row>
     <row r="16" ht="30" customHeight="1" spans="1:10">
       <c r="A16" s="4" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J16" s="5"/>
     </row>
     <row r="17" ht="34" customHeight="1" spans="1:10">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J17" s="4"/>
     </row>
@@ -2543,7 +3352,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2569,64 +3378,64 @@
     </row>
     <row r="3" ht="24" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" ht="27" customHeight="1" spans="1:10">
       <c r="A4" s="4"/>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="I4" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="28" customHeight="1" spans="1:1">
@@ -2676,43 +3485,43 @@
     </row>
     <row r="16" ht="30" customHeight="1" spans="1:10">
       <c r="A16" s="4" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J16" s="5"/>
     </row>
     <row r="17" ht="34" customHeight="1" spans="1:10">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="J17" s="4"/>
     </row>

--- a/GHMonitoringCenterApi.Domain.Shared/Template/Excel/ProductionDayReport.xlsx
+++ b/GHMonitoringCenterApi.Domain.Shared/Template/Excel/ProductionDayReport.xlsx
@@ -57,14 +57,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="90">
   <si>
     <t>{{datesheet1}}广航局生产运营监控日报</t>
   </si>
   <si>
-    <t>{{days1heet1}}</t>
-  </si>
-  <si>
     <t>业务单位</t>
   </si>
   <si>
@@ -180,6 +177,108 @@
   </si>
   <si>
     <t>{{result3.BuildPercent}}</t>
+  </si>
+  <si>
+    <t>当年运转时间</t>
+  </si>
+  <si>
+    <t>当年时间利用率</t>
+  </si>
+  <si>
+    <t>{{result4.Name}}</t>
+  </si>
+  <si>
+    <t>{{result4.DayProductionValue}}</t>
+  </si>
+  <si>
+    <t>{{result4.YearTotalProductionValue}}</t>
+  </si>
+  <si>
+    <t>{{result4.YearTotalTurnHours}}</t>
+  </si>
+  <si>
+    <t>{{result4.TimePercent}}</t>
+  </si>
+  <si>
+    <t>船名</t>
+  </si>
+  <si>
+    <t>年累计产值（亿元）</t>
+  </si>
+  <si>
+    <t>时间利用率</t>
+  </si>
+  <si>
+    <t>{{result5.ShipName}}</t>
+  </si>
+  <si>
+    <t>{{result5.ShipDayOutput}}</t>
+  </si>
+  <si>
+    <t>{{result5.ShipYearOutput}}</t>
+  </si>
+  <si>
+    <t>{{result5.TimePercent}}</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>事项来源</t>
+  </si>
+  <si>
+    <t>事项分类</t>
+  </si>
+  <si>
+    <t>情况描述</t>
+  </si>
+  <si>
+    <t>{{result6.Name}}</t>
+  </si>
+  <si>
+    <t>{{result6.SourceMatter}}</t>
+  </si>
+  <si>
+    <t>{{result6.TypeDesc}}</t>
+  </si>
+  <si>
+    <t>{{result6.Description}}</t>
+  </si>
+  <si>
+    <t>在建项目</t>
+  </si>
+  <si>
+    <t>当日未填报项目</t>
+  </si>
+  <si>
+    <t>当日填报率</t>
+  </si>
+  <si>
+    <t>{{result7.Name}}</t>
+  </si>
+  <si>
+    <t>{{result7.OnBulidCount}}</t>
+  </si>
+  <si>
+    <t>{{result7.UnReportCount}}</t>
+  </si>
+  <si>
+    <t>{{result7.WritePercent}}</t>
+  </si>
+  <si>
+    <t>未填报项目</t>
+  </si>
+  <si>
+    <t>当月未填报次数</t>
+  </si>
+  <si>
+    <t>{{result8.Name}}</t>
+  </si>
+  <si>
+    <t>{{result8.ProjectName}}</t>
+  </si>
+  <si>
+    <t>{{result8.unCount}}</t>
   </si>
   <si>
     <t>广航局生产运营监控日报{{date}}</t>
@@ -871,7 +970,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -890,10 +989,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1429,27 +1534,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:J2"/>
+    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.75" customWidth="1"/>
-    <col min="2" max="2" width="21.375" customWidth="1"/>
-    <col min="3" max="3" width="34.375" customWidth="1"/>
-    <col min="4" max="4" width="27.5" customWidth="1"/>
-    <col min="5" max="5" width="34.625" customWidth="1"/>
-    <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="30.625" customWidth="1"/>
-    <col min="8" max="8" width="26.75" customWidth="1"/>
-    <col min="9" max="9" width="24.25" customWidth="1"/>
-    <col min="10" max="10" width="25.75" customWidth="1"/>
+    <col min="1" max="1" width="21.375" customWidth="1"/>
+    <col min="2" max="2" width="34.375" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="4" width="34.625" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="30.625" customWidth="1"/>
+    <col min="7" max="7" width="26.75" customWidth="1"/>
+    <col min="8" max="8" width="24.25" customWidth="1"/>
+    <col min="9" max="9" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1461,9 +1565,8 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1473,206 +1576,213 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" ht="24" customHeight="1" spans="1:10">
-      <c r="A3" s="4" t="s">
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" ht="24" customHeight="1" spans="1:9">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="3" t="s">
+    </row>
+    <row r="5" ht="27" customHeight="1" spans="1:9">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" ht="27" customHeight="1" spans="1:10">
-      <c r="A4" s="4"/>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" t="s">
         <v>15</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G5" t="s">
         <v>16</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H5" t="s">
         <v>17</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I5" t="s">
         <v>18</v>
       </c>
-      <c r="J4" t="s">
+    </row>
+    <row r="6" ht="28" customHeight="1" spans="5:5">
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" ht="26" customHeight="1" spans="5:5">
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" ht="25" customHeight="1"/>
+    <row r="9" ht="26" customHeight="1"/>
+    <row r="10" ht="27" customHeight="1"/>
+    <row r="11" ht="24" customHeight="1"/>
+    <row r="12" ht="27" customHeight="1" spans="1:9">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" ht="30" customHeight="1" spans="1:9">
+      <c r="A13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" ht="28" customHeight="1" spans="1:1">
-      <c r="A5" s="4"/>
-    </row>
-    <row r="6" ht="26" customHeight="1" spans="1:1">
-      <c r="A6" s="4"/>
-    </row>
-    <row r="7" ht="25" customHeight="1" spans="1:1">
-      <c r="A7" s="4"/>
-    </row>
-    <row r="8" ht="26" customHeight="1" spans="1:1">
-      <c r="A8" s="4"/>
-    </row>
-    <row r="9" ht="27" customHeight="1" spans="1:1">
-      <c r="A9" s="4"/>
-    </row>
-    <row r="10" ht="24" customHeight="1" spans="1:1">
-      <c r="A10" s="4"/>
-    </row>
-    <row r="11" ht="27" customHeight="1" spans="1:1">
-      <c r="A11" s="4"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" ht="34" customHeight="1" spans="1:9">
+      <c r="A14" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="C14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" ht="28" customHeight="1" spans="1:9">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" ht="30" customHeight="1" spans="1:10">
-      <c r="A16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" ht="34" customHeight="1" spans="1:10">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" ht="27" customHeight="1" spans="1:9">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" ht="30" customHeight="1" spans="1:9">
       <c r="A17" s="4"/>
-      <c r="B17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" ht="28" customHeight="1" spans="1:10">
+      <c r="B17" s="4"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" ht="26" customHeight="1" spans="1:9">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" ht="27" customHeight="1" spans="1:10">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" ht="28" customHeight="1" spans="1:9">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" ht="30" customHeight="1" spans="1:10">
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" ht="27" customHeight="1" spans="1:9">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" ht="26" customHeight="1" spans="1:10">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" ht="30" customHeight="1" spans="1:9">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" ht="28" customHeight="1" spans="1:10">
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" ht="30" customHeight="1" spans="1:9">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1682,111 +1792,103 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-    </row>
-    <row r="23" ht="27" customHeight="1" spans="1:10">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-    </row>
-    <row r="24" ht="30" customHeight="1" spans="1:10">
-      <c r="A24" s="4"/>
+    </row>
+    <row r="23" ht="33" customHeight="1" spans="1:9">
+      <c r="A23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" ht="28" customHeight="1" spans="1:9">
+      <c r="A24" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-    </row>
-    <row r="25" ht="33" customHeight="1" spans="2:10">
-      <c r="B25" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J25" s="5"/>
-    </row>
-    <row r="26" ht="28" customHeight="1" spans="1:10">
-      <c r="A26" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="4" t="s">
+      <c r="C24" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="7" t="s">
+      <c r="D24" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E24" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F24" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G24" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H24" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I26" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J26" s="4"/>
-    </row>
-    <row r="27" ht="30" customHeight="1" spans="1:10">
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" ht="30" customHeight="1" spans="1:9">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" ht="28" customHeight="1" spans="1:9">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+    </row>
+    <row r="27" ht="30" customHeight="1" spans="1:9">
       <c r="A27" s="4"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-    </row>
-    <row r="28" ht="28" customHeight="1" spans="1:10">
-      <c r="A28" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+    </row>
+    <row r="28" ht="29" customHeight="1" spans="1:9">
+      <c r="A28" s="7"/>
       <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-    </row>
-    <row r="29" ht="30" customHeight="1" spans="1:10">
-      <c r="A29" s="4"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" ht="29" customHeight="1" spans="1:9">
+      <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1794,74 +1896,756 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="7"/>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="7"/>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="7"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="7"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="7"/>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+    </row>
+    <row r="40" spans="3:9">
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="4"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B69" s="8"/>
+      <c r="C69" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D69" s="4"/>
+      <c r="E69" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="8"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="8"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="8"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B87" s="8"/>
+      <c r="C87" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="8"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="A14:J15"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:H31"/>
+    <mergeCell ref="A42:B43"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:I43"/>
+    <mergeCell ref="B58:C59"/>
+    <mergeCell ref="D58:E59"/>
+    <mergeCell ref="F58:I59"/>
+    <mergeCell ref="A67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:F68"/>
+    <mergeCell ref="G67:I68"/>
+    <mergeCell ref="A85:B86"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="E85:F86"/>
+    <mergeCell ref="G85:I86"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -2053,7 +2837,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2079,64 +2863,64 @@
     </row>
     <row r="3" ht="24" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" ht="27" customHeight="1" spans="1:10">
       <c r="A4" s="4"/>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>16</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>17</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>18</v>
-      </c>
-      <c r="J4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="28" customHeight="1" spans="1:1">
@@ -2186,43 +2970,43 @@
     </row>
     <row r="16" ht="30" customHeight="1" spans="1:10">
       <c r="A16" s="4" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J16" s="5"/>
     </row>
     <row r="17" ht="34" customHeight="1" spans="1:10">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J17" s="4"/>
     </row>
@@ -2543,7 +3327,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2569,64 +3353,64 @@
     </row>
     <row r="3" ht="24" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" ht="27" customHeight="1" spans="1:10">
       <c r="A4" s="4"/>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="I4" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="28" customHeight="1" spans="1:1">
@@ -2676,43 +3460,43 @@
     </row>
     <row r="16" ht="30" customHeight="1" spans="1:10">
       <c r="A16" s="4" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J16" s="5"/>
     </row>
     <row r="17" ht="34" customHeight="1" spans="1:10">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="J17" s="4"/>
     </row>

--- a/GHMonitoringCenterApi.Domain.Shared/Template/Excel/ProductionDayReport.xlsx
+++ b/GHMonitoringCenterApi.Domain.Shared/Template/Excel/ProductionDayReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" firstSheet="13" activeTab="30"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="1号" sheetId="1" r:id="rId1"/>
@@ -92,31 +92,31 @@
     <t>危大施工（项）</t>
   </si>
   <si>
-    <t>{{one1.Name}}</t>
-  </si>
-  <si>
-    <t>{{one1.OnContractProjectCount}}</t>
-  </si>
-  <si>
-    <t>{{one1.OnBuildProjectCount}}</t>
-  </si>
-  <si>
-    <t>{{one1.StopBuildProjectCount}}</t>
-  </si>
-  <si>
-    <t>{{one1.NotWorkCount}}</t>
-  </si>
-  <si>
-    <t>{{one1.BuildCountPercent}}</t>
-  </si>
-  <si>
-    <t>{{one1.FacilityCount}}</t>
-  </si>
-  <si>
-    <t>{{one1.WorkerCount}}</t>
-  </si>
-  <si>
-    <t>{{one1.RiskWorkCount}}</t>
+    <t>{{resultone1.Name}}</t>
+  </si>
+  <si>
+    <t>{{resultone1.OnContractProjectCount}}</t>
+  </si>
+  <si>
+    <t>{{resultone1.OnBuildProjectCount}}</t>
+  </si>
+  <si>
+    <t>{{resultone1.StopBuildProjectCount}}</t>
+  </si>
+  <si>
+    <t>{{resultone1.NotWorkCount}}</t>
+  </si>
+  <si>
+    <t>{{resultone1.BuildCountPercent}}</t>
+  </si>
+  <si>
+    <t>{{resultone1.FacilityCount}}</t>
+  </si>
+  <si>
+    <t>{{resultone1.WorkerCount}}</t>
+  </si>
+  <si>
+    <t>{{resultone1.RiskWorkCount}}</t>
   </si>
   <si>
     <t>{{titleone2}}</t>
@@ -131,16 +131,16 @@
     <t>年度产值占比（占广航局）</t>
   </si>
   <si>
-    <t>{{one2.Name}}</t>
-  </si>
-  <si>
-    <t>{{one2.DayProductionValue}}</t>
-  </si>
-  <si>
-    <t>{{one2.TotalYearProductionValue}}</t>
-  </si>
-  <si>
-    <t>{{one2.YearProductionValueProgressPercent}}</t>
+    <t>{{resultone2.Name}}</t>
+  </si>
+  <si>
+    <t>{{resultone2.DayProductionValue}}</t>
+  </si>
+  <si>
+    <t>{{resultone2.TotalYearProductionValue}}</t>
+  </si>
+  <si>
+    <t>{{resultone2.YearProductionValueProgressPercent}}</t>
   </si>
   <si>
     <t>{{titleone3}}</t>
@@ -167,25 +167,25 @@
     <t>开工率</t>
   </si>
   <si>
-    <t>{{one3.Name}}</t>
-  </si>
-  <si>
-    <t>{{one3.Count}}</t>
-  </si>
-  <si>
-    <t>{{one3.BuildCount}}</t>
-  </si>
-  <si>
-    <t>{{one3.ReconditionCount}}</t>
-  </si>
-  <si>
-    <t>{{one3.AssignCount}}</t>
-  </si>
-  <si>
-    <t>{{one3.AwaitCount}}</t>
-  </si>
-  <si>
-    <t>{{one3.BuildPercent}}</t>
+    <t>{{resultone3.Name}}</t>
+  </si>
+  <si>
+    <t>{{resultone3.Count}}</t>
+  </si>
+  <si>
+    <t>{{resultone3.BuildCount}}</t>
+  </si>
+  <si>
+    <t>{{resultone3.ReconditionCount}}</t>
+  </si>
+  <si>
+    <t>{{resultone3.AssignCount}}</t>
+  </si>
+  <si>
+    <t>{{resultone3.AwaitCount}}</t>
+  </si>
+  <si>
+    <t>{{resultone3.BuildPercent}}</t>
   </si>
   <si>
     <t>{{titleone4}}</t>
@@ -197,19 +197,19 @@
     <t>当年时间利用率</t>
   </si>
   <si>
-    <t>{{one4.Name}}</t>
-  </si>
-  <si>
-    <t>{{one4.DayProductionValue}}</t>
-  </si>
-  <si>
-    <t>{{one4.YearTotalProductionValue}}</t>
-  </si>
-  <si>
-    <t>{{one4.YearTotalTurnHours}}</t>
-  </si>
-  <si>
-    <t>{{one4.TimePercent}}</t>
+    <t>{{resultone4.Name}}</t>
+  </si>
+  <si>
+    <t>{{resultone4.DayProductionValue}}</t>
+  </si>
+  <si>
+    <t>{{resultone4.YearTotalProductionValue}}</t>
+  </si>
+  <si>
+    <t>{{resultone4.YearTotalTurnHours}}</t>
+  </si>
+  <si>
+    <t>{{resultone4.TimePercent}}</t>
   </si>
   <si>
     <t>{{titleone5}}</t>
@@ -224,16 +224,16 @@
     <t>时间利用率</t>
   </si>
   <si>
-    <t>{{one5.ShipName}}</t>
-  </si>
-  <si>
-    <t>{{one5.ShipDayOutput}}</t>
-  </si>
-  <si>
-    <t>{{one5.ShipYearOutput}}</t>
-  </si>
-  <si>
-    <t>{{one5.TimePercent}}</t>
+    <t>{{resultone5.ShipName}}</t>
+  </si>
+  <si>
+    <t>{{resultone5.ShipDayOutput}}</t>
+  </si>
+  <si>
+    <t>{{resultone5.ShipYearOutput}}</t>
+  </si>
+  <si>
+    <t>{{resultone5.TimePercent}}</t>
   </si>
   <si>
     <t>{{titleone6}}</t>
@@ -251,16 +251,16 @@
     <t>情况描述</t>
   </si>
   <si>
-    <t>{{one6.Name}}</t>
-  </si>
-  <si>
-    <t>{{one6.SourceMatter}}</t>
-  </si>
-  <si>
-    <t>{{one6.TypeDesc}}</t>
-  </si>
-  <si>
-    <t>{{one6.Description}}</t>
+    <t>{{resultone6.Name}}</t>
+  </si>
+  <si>
+    <t>{{resultone6.SourceMatter}}</t>
+  </si>
+  <si>
+    <t>{{resultone6.TypeDesc}}</t>
+  </si>
+  <si>
+    <t>{{resultone6.Description}}</t>
   </si>
   <si>
     <t>{{titleone7}}</t>
@@ -275,16 +275,16 @@
     <t>当日填报率</t>
   </si>
   <si>
-    <t>{{one7.Name}}</t>
-  </si>
-  <si>
-    <t>{{one7.OnBulidCount}}</t>
-  </si>
-  <si>
-    <t>{{one7.UnReportCount}}</t>
-  </si>
-  <si>
-    <t>{{one7.WritePercent}}</t>
+    <t>{{resultone7.Name}}</t>
+  </si>
+  <si>
+    <t>{{resultone7.OnBulidCount}}</t>
+  </si>
+  <si>
+    <t>{{resultone7.UnReportCount}}</t>
+  </si>
+  <si>
+    <t>{{resultone7.WritePercent}}</t>
   </si>
   <si>
     <t>{{titleone8}}</t>
@@ -296,13 +296,13 @@
     <t>当月未填报次数</t>
   </si>
   <si>
-    <t>{{one8.Name}}</t>
-  </si>
-  <si>
-    <t>{{one8.ProjectName}}</t>
-  </si>
-  <si>
-    <t>{{one8.unCount}}</t>
+    <t>{{resultone8.Name}}</t>
+  </si>
+  <si>
+    <t>{{resultone8.ProjectName}}</t>
+  </si>
+  <si>
+    <t>{{resultone8.unCount}}</t>
   </si>
   <si>
     <t>{{titleone9}}</t>
@@ -314,13 +314,13 @@
     <t>所在项目</t>
   </si>
   <si>
-    <t>{{one9.Name}}</t>
-  </si>
-  <si>
-    <t>{{one9.ShipName}}</t>
-  </si>
-  <si>
-    <t>{{one9.OnProjectName}}</t>
+    <t>{{resultone9.Name}}</t>
+  </si>
+  <si>
+    <t>{{resultone9.ShipName}}</t>
+  </si>
+  <si>
+    <t>{{resultone9.OnProjectName}}</t>
   </si>
   <si>
     <t>{{datesheettwo1}}广航局生产运营监控日报</t>
@@ -6310,8 +6310,8 @@
   <sheetPr/>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:I8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25.5" customHeight="1"/>
@@ -20457,7 +20457,7 @@
   <sheetPr/>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>

--- a/GHMonitoringCenterApi.Domain.Shared/Template/Excel/ProductionDayReport.xlsx
+++ b/GHMonitoringCenterApi.Domain.Shared/Template/Excel/ProductionDayReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12975" activeTab="5"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="1号" sheetId="1" r:id="rId1"/>
@@ -2600,160 +2600,160 @@
     <t>{{titletsixteen1}}</t>
   </si>
   <si>
-    <t>{{resulttsixteen1.Name}}</t>
-  </si>
-  <si>
-    <t>{{resulttsixteen1.OnContractProjectCount}}</t>
-  </si>
-  <si>
-    <t>{{resulttsixteen1.OnBuildProjectCount}}</t>
-  </si>
-  <si>
-    <t>{{resulttsixteen1.StopBuildProjectCount}}</t>
-  </si>
-  <si>
-    <t>{{resulttsixteen1.NotWorkCount}}</t>
-  </si>
-  <si>
-    <t>{{resulttsixteen1.BuildCountPercent}}</t>
-  </si>
-  <si>
-    <t>{{resulttsixteen1.FacilityCount}}</t>
-  </si>
-  <si>
-    <t>{{resulttsixteen1.WorkerCount}}</t>
-  </si>
-  <si>
-    <t>{{resulttsixteen1.RiskWorkCount}}</t>
+    <t>{{resultsixteen1.Name}}</t>
+  </si>
+  <si>
+    <t>{{resultsixteen1.OnContractProjectCount}}</t>
+  </si>
+  <si>
+    <t>{{resultsixteen1.OnBuildProjectCount}}</t>
+  </si>
+  <si>
+    <t>{{resultsixteen1.StopBuildProjectCount}}</t>
+  </si>
+  <si>
+    <t>{{resultsixteen1.NotWorkCount}}</t>
+  </si>
+  <si>
+    <t>{{resultsixteen1.BuildCountPercent}}</t>
+  </si>
+  <si>
+    <t>{{resultsixteen1.FacilityCount}}</t>
+  </si>
+  <si>
+    <t>{{resultsixteen1.WorkerCount}}</t>
+  </si>
+  <si>
+    <t>{{resultsixteen1.RiskWorkCount}}</t>
   </si>
   <si>
     <t>{{titletsixteen2}}</t>
   </si>
   <si>
-    <t>{{resulttsixteen2.Name}}</t>
-  </si>
-  <si>
-    <t>{{resulttsixteen2.DayProductionValue}}</t>
-  </si>
-  <si>
-    <t>{{resulttsixteen2.TotalYearProductionValue}}</t>
-  </si>
-  <si>
-    <t>{{resulttsixteen2.YearProductionValueProgressPercent}}</t>
+    <t>{{resultsixteen2.Name}}</t>
+  </si>
+  <si>
+    <t>{{resultsixteen2.DayProductionValue}}</t>
+  </si>
+  <si>
+    <t>{{resultsixteen2.TotalYearProductionValue}}</t>
+  </si>
+  <si>
+    <t>{{resultsixteen2.YearProductionValueProgressPercent}}</t>
   </si>
   <si>
     <t>{{titletsixteen3}}</t>
   </si>
   <si>
-    <t>{{resulttsixteen3.Name}}</t>
-  </si>
-  <si>
-    <t>{{resulttsixteen3.Count}}</t>
-  </si>
-  <si>
-    <t>{{resulttsixteen3.BuildCount}}</t>
-  </si>
-  <si>
-    <t>{{resulttsixteen3.ReconditionCount}}</t>
-  </si>
-  <si>
-    <t>{{resulttsixteen3.AssignCount}}</t>
-  </si>
-  <si>
-    <t>{{resulttsixteen3.AwaitCount}}</t>
-  </si>
-  <si>
-    <t>{{resulttsixteen3.BuildPercent}}</t>
+    <t>{{resultsixteen3.Name}}</t>
+  </si>
+  <si>
+    <t>{{resultsixteen3.Count}}</t>
+  </si>
+  <si>
+    <t>{{resultsixteen3.BuildCount}}</t>
+  </si>
+  <si>
+    <t>{{resultsixteen3.ReconditionCount}}</t>
+  </si>
+  <si>
+    <t>{{resultsixteen3.AssignCount}}</t>
+  </si>
+  <si>
+    <t>{{resultsixteen3.AwaitCount}}</t>
+  </si>
+  <si>
+    <t>{{resultsixteen3.BuildPercent}}</t>
   </si>
   <si>
     <t>{{titletsixteen4}}</t>
   </si>
   <si>
-    <t>{{resulttsixteen4.Name}}</t>
-  </si>
-  <si>
-    <t>{{resulttsixteen4.DayProductionValue}}</t>
-  </si>
-  <si>
-    <t>{{resulttsixteen4.YearTotalProductionValue}}</t>
-  </si>
-  <si>
-    <t>{{resulttsixteen4.YearTotalTurnHours}}</t>
-  </si>
-  <si>
-    <t>{{resulttsixteen4.TimePercent}}</t>
+    <t>{{resultsixteen4.Name}}</t>
+  </si>
+  <si>
+    <t>{{resultsixteen4.DayProductionValue}}</t>
+  </si>
+  <si>
+    <t>{{resultsixteen4.YearTotalProductionValue}}</t>
+  </si>
+  <si>
+    <t>{{resultsixteen4.YearTotalTurnHours}}</t>
+  </si>
+  <si>
+    <t>{{resultsixteen4.TimePercent}}</t>
   </si>
   <si>
     <t>{{titletsixteen5}}</t>
   </si>
   <si>
-    <t>{{resulttsixteen5.ShipName}}</t>
-  </si>
-  <si>
-    <t>{{resulttsixteen5.ShipDayOutput}}</t>
-  </si>
-  <si>
-    <t>{{resulttsixteen5.ShipYearOutput}}</t>
-  </si>
-  <si>
-    <t>{{resulttsixteen5.TimePercent}}</t>
+    <t>{{resultsixteen5.ShipName}}</t>
+  </si>
+  <si>
+    <t>{{resultsixteen5.ShipDayOutput}}</t>
+  </si>
+  <si>
+    <t>{{resultsixteen5.ShipYearOutput}}</t>
+  </si>
+  <si>
+    <t>{{resultsixteen5.TimePercent}}</t>
   </si>
   <si>
     <t>{{titletsixteen6}}</t>
   </si>
   <si>
-    <t>{{resulttsixteen6.No}}</t>
-  </si>
-  <si>
-    <t>{{resulttsixteen6.SourceMatter}}</t>
-  </si>
-  <si>
-    <t>{{resulttsixteen6.TypeDesc}}</t>
-  </si>
-  <si>
-    <t>{{resulttsixteen6.Description}}</t>
+    <t>{{resultsixteen6.No}}</t>
+  </si>
+  <si>
+    <t>{{resultsixteen6.SourceMatter}}</t>
+  </si>
+  <si>
+    <t>{{resultsixteen6.TypeDesc}}</t>
+  </si>
+  <si>
+    <t>{{resultsixteen6.Description}}</t>
   </si>
   <si>
     <t>{{titletsixteen7}}</t>
   </si>
   <si>
-    <t>{{resulttsixteen7.Name}}</t>
-  </si>
-  <si>
-    <t>{{resulttsixteen7.OnBulidCount}}</t>
-  </si>
-  <si>
-    <t>{{resulttsixteen7.UnReportCount}}</t>
-  </si>
-  <si>
-    <t>{{resulttsixteen7.WritePercent}}</t>
+    <t>{{resultsixteen7.Name}}</t>
+  </si>
+  <si>
+    <t>{{resultsixteen7.OnBulidCount}}</t>
+  </si>
+  <si>
+    <t>{{resultsixteen7.UnReportCount}}</t>
+  </si>
+  <si>
+    <t>{{resultsixteen7.WritePercent}}</t>
   </si>
   <si>
     <t>{{titletsixteen8}}</t>
   </si>
   <si>
-    <t>{{resulttsixteen8.No}}</t>
-  </si>
-  <si>
-    <t>{{resulttsixteen8.ProjectName}}</t>
-  </si>
-  <si>
-    <t>{{resulttsixteen8.Name}}</t>
-  </si>
-  <si>
-    <t>{{resulttsixteen8.unCount}}</t>
+    <t>{{resultsixteen8.No}}</t>
+  </si>
+  <si>
+    <t>{{resultsixteen8.ProjectName}}</t>
+  </si>
+  <si>
+    <t>{{resultsixteen8.Name}}</t>
+  </si>
+  <si>
+    <t>{{resultsixteen8.unCount}}</t>
   </si>
   <si>
     <t>{{titletsixteen9}}</t>
   </si>
   <si>
-    <t>{{resulttsixteen9.No}}</t>
-  </si>
-  <si>
-    <t>{{resulttsixteen9.ShipName}}</t>
-  </si>
-  <si>
-    <t>{{resulttsixteen9.OnProjectName}}</t>
+    <t>{{resultsixteen9.No}}</t>
+  </si>
+  <si>
+    <t>{{resultsixteen9.ShipName}}</t>
+  </si>
+  <si>
+    <t>{{resultsixteen9.OnProjectName}}</t>
   </si>
   <si>
     <t>{{datesheetsevevnteen1}}广航局生产运营监控日报</t>
@@ -11303,8 +11303,8 @@
   <sheetPr/>
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -25223,7 +25223,7 @@
   <sheetPr/>
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>

--- a/GHMonitoringCenterApi.Domain.Shared/Template/Excel/ProductionDayReport.xlsx
+++ b/GHMonitoringCenterApi.Domain.Shared/Template/Excel/ProductionDayReport.xlsx
@@ -2594,10 +2594,10 @@
     <t>{{resultfifteen9.OnProjectName}}</t>
   </si>
   <si>
-    <t>{{datesheettsixteen1}}广航局生产运营监控日报</t>
-  </si>
-  <si>
-    <t>{{titletsixteen1}}</t>
+    <t>{{datesheetsixteen1}}广航局生产运营监控日报</t>
+  </si>
+  <si>
+    <t>{{titlesixteen1}}</t>
   </si>
   <si>
     <t>{{resultsixteen1.Name}}</t>
@@ -2627,7 +2627,7 @@
     <t>{{resultsixteen1.RiskWorkCount}}</t>
   </si>
   <si>
-    <t>{{titletsixteen2}}</t>
+    <t>{{titlesixteen2}}</t>
   </si>
   <si>
     <t>{{resultsixteen2.Name}}</t>
@@ -2642,7 +2642,7 @@
     <t>{{resultsixteen2.YearProductionValueProgressPercent}}</t>
   </si>
   <si>
-    <t>{{titletsixteen3}}</t>
+    <t>{{titlesixteen3}}</t>
   </si>
   <si>
     <t>{{resultsixteen3.Name}}</t>
@@ -2666,7 +2666,7 @@
     <t>{{resultsixteen3.BuildPercent}}</t>
   </si>
   <si>
-    <t>{{titletsixteen4}}</t>
+    <t>{{titlesixteen4}}</t>
   </si>
   <si>
     <t>{{resultsixteen4.Name}}</t>
@@ -2684,7 +2684,7 @@
     <t>{{resultsixteen4.TimePercent}}</t>
   </si>
   <si>
-    <t>{{titletsixteen5}}</t>
+    <t>{{titlesixteen5}}</t>
   </si>
   <si>
     <t>{{resultsixteen5.ShipName}}</t>
@@ -2699,7 +2699,7 @@
     <t>{{resultsixteen5.TimePercent}}</t>
   </si>
   <si>
-    <t>{{titletsixteen6}}</t>
+    <t>{{titlesixteen6}}</t>
   </si>
   <si>
     <t>{{resultsixteen6.No}}</t>
@@ -2714,7 +2714,7 @@
     <t>{{resultsixteen6.Description}}</t>
   </si>
   <si>
-    <t>{{titletsixteen7}}</t>
+    <t>{{titlesixteen7}}</t>
   </si>
   <si>
     <t>{{resultsixteen7.Name}}</t>
@@ -2729,7 +2729,7 @@
     <t>{{resultsixteen7.WritePercent}}</t>
   </si>
   <si>
-    <t>{{titletsixteen8}}</t>
+    <t>{{titlesixteen8}}</t>
   </si>
   <si>
     <t>{{resultsixteen8.No}}</t>
@@ -2744,7 +2744,7 @@
     <t>{{resultsixteen8.unCount}}</t>
   </si>
   <si>
-    <t>{{titletsixteen9}}</t>
+    <t>{{titlesixteen9}}</t>
   </si>
   <si>
     <t>{{resultsixteen9.No}}</t>
@@ -11304,7 +11304,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:I17"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
